--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>

--- a/term/ValueSet-KLInterventionsFFB.xlsx
+++ b/term/ValueSet-KLInterventionsFFB.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
